--- a/sem_07/Economy/homeworks/hw_01/ИУ7-72 КлимовИС.xlsx
+++ b/sem_07/Economy/homeworks/hw_01/ИУ7-72 КлимовИС.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\bmstu_all\sem_07\Economy\homeworks\hw_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ilyas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCA77F-D109-4484-B4D2-37CF33701276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D430AB6-2C07-47F2-889A-3B99B165262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView visibility="hidden" xWindow="2088" yWindow="5160" windowWidth="10140" windowHeight="4740" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView visibility="hidden" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТитЛист" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>МГТУ им. Н.Э.Баумана</t>
   </si>
@@ -894,12 +894,93 @@
   <si>
     <t>Вывод: при измении исходных ресурсов производство ограничивается трудовыми ресурсами, при измении трудовых -- исходными. Также при уменьшии ограничений по каждому из них выпуск продукции увеличивается.</t>
   </si>
+  <si>
+    <t>Потребление исходных ресурсов</t>
+  </si>
+  <si>
+    <t>Экспериментальные данные</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Эксперимент</t>
+  </si>
+  <si>
+    <t>Линейный выпуск п/ф</t>
+  </si>
+  <si>
+    <t>Отклонение</t>
+  </si>
+  <si>
+    <t>Сумма квадратов отклонения</t>
+  </si>
+  <si>
+    <t>Ответ: выпуск ГП 2,964 &gt; старого</t>
+  </si>
+  <si>
+    <t>X2 = 2,82</t>
+  </si>
+  <si>
+    <t>X3 = 0,072</t>
+  </si>
+  <si>
+    <t>X1 = 2,892</t>
+  </si>
+  <si>
+    <t>Старый выпуск</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -981,8 +1062,34 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1147,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,6 +1571,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,7 +1609,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,6 +1637,1003 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Модель</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$M$30:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90249999999970743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5999999999997705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1520833333333078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6066666666668317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000002491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3566666666668592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.689583333333359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9999999999998348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2774999999997707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5000000000000435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BE63-440D-B228-4C2DC1D3C966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Линейный выпуск п/ф</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$M$32:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BE63-440D-B228-4C2DC1D3C966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$M$31:$W$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BE63-440D-B228-4C2DC1D3C966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1970877535"/>
+        <c:axId val="206087327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1970877535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206087327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="206087327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970877535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1494,7 +2647,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>107375</xdr:rowOff>
+      <xdr:rowOff>48195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2140,6 +3293,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7558</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1208689</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1C520A-A4BC-0DAE-606E-98A121DA607D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5944,27 +7133,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63018E-5B5F-479E-8BDA-F4CE2E38B1E9}">
-  <dimension ref="L4:Y21"/>
+  <dimension ref="L3:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="94" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" customWidth="1"/>
     <col min="24" max="24" width="17.88671875" customWidth="1"/>
     <col min="25" max="25" width="13.77734375" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="12:25" ht="18" x14ac:dyDescent="0.4">
-      <c r="M4" s="60" t="s">
+    <row r="3" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="AB3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+    </row>
+    <row r="4" spans="12:32" ht="18" x14ac:dyDescent="0.4">
+      <c r="M4" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
       <c r="Q4" s="27" t="s">
         <v>71</v>
       </c>
@@ -5986,8 +7186,23 @@
       <c r="Y4" s="59" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="AB4" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="81">
+        <v>1.6</v>
+      </c>
+      <c r="AD4" s="81">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="81">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="81">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L5" s="22" t="s">
         <v>67</v>
       </c>
@@ -6022,8 +7237,13 @@
       <c r="Y5" s="59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+    </row>
+    <row r="6" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L6" s="22" t="s">
         <v>84</v>
       </c>
@@ -6058,8 +7278,13 @@
       <c r="Y6" s="59" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+    </row>
+    <row r="7" spans="12:32" ht="15.6" x14ac:dyDescent="0.35">
       <c r="L7" s="22" t="s">
         <v>68</v>
       </c>
@@ -6094,8 +7319,23 @@
       <c r="Y7" s="59" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="AB7" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>8</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="12:32" x14ac:dyDescent="0.25">
       <c r="L8" s="22" t="s">
         <v>69</v>
       </c>
@@ -6131,19 +7371,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:32" x14ac:dyDescent="0.25">
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
-    </row>
-    <row r="10" spans="12:25" ht="18" x14ac:dyDescent="0.4">
-      <c r="M10" s="61" t="s">
+      <c r="AB9" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+    </row>
+    <row r="10" spans="12:32" ht="18" x14ac:dyDescent="0.4">
+      <c r="M10" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="T10" s="58" t="s">
@@ -6164,16 +7409,21 @@
       <c r="Y10" s="59" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="AB10" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+    </row>
+    <row r="11" spans="12:32" x14ac:dyDescent="0.25">
       <c r="M11" s="42">
-        <v>2</v>
+        <v>2.7025607091891701</v>
       </c>
       <c r="N11" s="43">
-        <v>1.333333333333333</v>
+        <v>2.504267848648623</v>
       </c>
       <c r="O11" s="28">
-        <v>0.66666666666666685</v>
+        <v>0.1982928605405507</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
@@ -6195,13 +7445,18 @@
       <c r="Y11" s="59" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="AB11" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+    </row>
+    <row r="12" spans="12:32" x14ac:dyDescent="0.25">
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
-      <c r="Q12" s="62"/>
+      <c r="Q12" s="76"/>
       <c r="T12" s="57">
         <v>-2</v>
       </c>
@@ -6220,15 +7475,20 @@
       <c r="Y12" s="59" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="12:25" ht="18" x14ac:dyDescent="0.4">
-      <c r="M13" s="61" t="s">
+      <c r="AB12" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+    </row>
+    <row r="13" spans="12:32" ht="18" x14ac:dyDescent="0.4">
+      <c r="M13" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
       <c r="P13" s="32"/>
-      <c r="Q13" s="63"/>
+      <c r="Q13" s="77"/>
       <c r="T13" s="57">
         <v>-3</v>
       </c>
@@ -6248,10 +7508,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:32" x14ac:dyDescent="0.25">
       <c r="M14" s="44">
-        <f>M5*M$11</f>
-        <v>-2</v>
+        <f>M5*(M25*M11+M26*M11^2+M27*M11^3+M28*M11^4)</f>
+        <v>-2.0000001454488445</v>
       </c>
       <c r="N14" s="45">
         <f t="shared" ref="N14:O14" si="0">N5*N$11</f>
@@ -6264,7 +7524,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="47">
         <f>SUM(M14:O14)</f>
-        <v>-2</v>
+        <v>-2.0000001454488445</v>
       </c>
       <c r="T14" s="57">
         <v>-4</v>
@@ -6285,23 +7545,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="12:32" x14ac:dyDescent="0.25">
       <c r="M15" s="48">
         <f t="shared" ref="M15:O17" si="1">M6*M$11</f>
-        <v>2</v>
+        <v>2.7025607091891701</v>
       </c>
       <c r="N15" s="49">
         <f t="shared" si="1"/>
-        <v>-1.333333333333333</v>
+        <v>-2.504267848648623</v>
       </c>
       <c r="O15" s="50">
         <f t="shared" si="1"/>
-        <v>-0.66666666666666685</v>
+        <v>-0.1982928605405507</v>
       </c>
       <c r="P15" s="32"/>
       <c r="Q15" s="51">
         <f t="shared" ref="Q15:Q17" si="2">SUM(M15:O15)</f>
-        <v>0</v>
+        <v>-3.524958103184872E-15</v>
       </c>
       <c r="T15" s="57">
         <v>-5</v>
@@ -6322,23 +7582,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="12:32" x14ac:dyDescent="0.25">
       <c r="M16" s="48">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-2.7025607091891701</v>
       </c>
       <c r="N16" s="49">
         <f t="shared" si="1"/>
-        <v>-1.333333333333333</v>
+        <v>-2.504267848648623</v>
       </c>
       <c r="O16" s="50">
         <f t="shared" si="1"/>
-        <v>-2.6666666666666674</v>
+        <v>-0.79317144216220281</v>
       </c>
       <c r="P16" s="32"/>
       <c r="Q16" s="51">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>-5.9999999999999964</v>
       </c>
       <c r="T16" s="57">
         <v>-6</v>
@@ -6366,60 +7626,340 @@
       </c>
       <c r="N17" s="53">
         <f t="shared" si="1"/>
-        <v>1.333333333333333</v>
+        <v>2.504267848648623</v>
       </c>
       <c r="O17" s="54">
         <f t="shared" si="1"/>
-        <v>1.3333333333333337</v>
+        <v>0.39658572108110141</v>
       </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="55">
         <f t="shared" si="2"/>
-        <v>2.666666666666667</v>
+        <v>2.9008535697297244</v>
       </c>
     </row>
     <row r="18" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="T18" s="65" t="s">
+      <c r="T18" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
     </row>
     <row r="19" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
     </row>
     <row r="20" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
       <c r="N20" s="56">
         <f>N17+O17</f>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
+        <v>2.9008535697297244</v>
+      </c>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
     </row>
     <row r="21" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+    </row>
+    <row r="25" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="68">
+        <v>1.0277777777772206</v>
+      </c>
+    </row>
+    <row r="26" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="69">
+        <v>-0.13763888888857576</v>
+      </c>
+    </row>
+    <row r="27" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L27" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="69">
+        <v>1.2847222222171226E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="70">
+        <v>-4.8611111110858127E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L30" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="59">
+        <f>$M$25*M34+$M$26*M34^2+$M$27*M34^3+$M$28*M34^4</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="59">
+        <f>$M$25*N34+$M$26*N34^2+$M$27*N34^3+$M$28*N34^4</f>
+        <v>0.90249999999970743</v>
+      </c>
+      <c r="O30" s="59">
+        <f t="shared" ref="O30:W30" si="3">$M$25*O34+$M$26*O34^2+$M$27*O34^3+$M$28*O34^4</f>
+        <v>1.5999999999997705</v>
+      </c>
+      <c r="P30" s="59">
+        <f t="shared" si="3"/>
+        <v>2.1520833333333078</v>
+      </c>
+      <c r="Q30" s="59">
+        <f t="shared" si="3"/>
+        <v>2.6066666666668317</v>
+      </c>
+      <c r="R30" s="59">
+        <f t="shared" si="3"/>
+        <v>3.0000000000002491</v>
+      </c>
+      <c r="S30" s="59">
+        <f t="shared" si="3"/>
+        <v>3.3566666666668592</v>
+      </c>
+      <c r="T30" s="59">
+        <f t="shared" si="3"/>
+        <v>3.689583333333359</v>
+      </c>
+      <c r="U30" s="59">
+        <f t="shared" si="3"/>
+        <v>3.9999999999998348</v>
+      </c>
+      <c r="V30" s="59">
+        <f t="shared" si="3"/>
+        <v>4.2774999999997707</v>
+      </c>
+      <c r="W30" s="59">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000435</v>
+      </c>
+    </row>
+    <row r="31" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L31" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="59">
+        <v>0</v>
+      </c>
+      <c r="N31" s="59"/>
+      <c r="O31" s="57">
+        <v>1.6</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="57">
+        <v>3</v>
+      </c>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="57">
+        <v>4</v>
+      </c>
+      <c r="V31" s="59"/>
+      <c r="W31" s="57">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L32" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="59">
+        <v>0</v>
+      </c>
+      <c r="N32" s="59">
+        <v>1</v>
+      </c>
+      <c r="O32" s="59">
+        <v>2</v>
+      </c>
+      <c r="P32" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="59">
+        <v>4</v>
+      </c>
+      <c r="R32" s="59">
+        <v>5</v>
+      </c>
+      <c r="S32" s="59">
+        <v>6</v>
+      </c>
+      <c r="T32" s="59">
+        <v>7</v>
+      </c>
+      <c r="U32" s="59">
+        <v>8</v>
+      </c>
+      <c r="V32" s="59">
+        <v>9</v>
+      </c>
+      <c r="W32" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L33" s="65"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+    </row>
+    <row r="34" spans="12:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L34" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="59">
+        <v>0</v>
+      </c>
+      <c r="N34" s="59">
+        <v>1</v>
+      </c>
+      <c r="O34" s="59">
+        <v>2</v>
+      </c>
+      <c r="P34" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="59">
+        <v>4</v>
+      </c>
+      <c r="R34" s="59">
+        <v>5</v>
+      </c>
+      <c r="S34" s="59">
+        <v>6</v>
+      </c>
+      <c r="T34" s="59">
+        <v>7</v>
+      </c>
+      <c r="U34" s="59">
+        <v>8</v>
+      </c>
+      <c r="V34" s="59">
+        <v>9</v>
+      </c>
+      <c r="W34" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+    </row>
+    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L36" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" s="65">
+        <f>(M30-M31)^2</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="65"/>
+      <c r="O36" s="67">
+        <f>(O30-O31)^2</f>
+        <v>5.2713460623904756E-26</v>
+      </c>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67">
+        <f>(R30-R31)^2</f>
+        <v>6.2067773238015514E-26</v>
+      </c>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67">
+        <f t="shared" ref="U36:W36" si="4">(U30-U31)^2</f>
+        <v>2.7291431877026124E-26</v>
+      </c>
+      <c r="V36" s="65"/>
+      <c r="W36" s="67">
+        <f t="shared" si="4"/>
+        <v>1.8940550334356493E-27</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L38" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" s="63">
+        <f>O36+R36+U36+W36</f>
+        <v>1.4396672077238204E-25</v>
+      </c>
+    </row>
+    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L41" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="72">
+        <v>2.6666669999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="12:23" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L42" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="M42" s="72">
+        <v>2</v>
+      </c>
+      <c r="N42" s="72">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="O42" s="72">
+        <v>0.66666700000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
     <mergeCell ref="T18:Y21"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M10:O10"/>
